--- a/DesignerConfigs/Datas/test/luban_assistant_test_json.xlsx
+++ b/DesignerConfigs/Datas/test/luban_assistant_test_json.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07EA5C8-38E9-4813-B321-5F803337C3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879DACD9-C5BD-4E6C-B570-7EAEADE943F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{63D940A5-3309-4C9F-BA0D-46021583473B}"/>
+    <workbookView xWindow="29235" yWindow="465" windowWidth="24120" windowHeight="14850" xr2:uid="{63D940A5-3309-4C9F-BA0D-46021583473B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -149,31 +149,76 @@
     <t>DemoD2,1,2,DemoD2,2,3</t>
   </si>
   <si>
+    <t>hq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/asfa#aabbcc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1,2.2,3.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1,11.2,12.3,13.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DemoD2,1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#2#4#10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,true,2,false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DemoD2,1,2,DemoD2,2,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.1,2.2,3.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1,11.2,12.3,13.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DemoD2,1,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2#2#4#11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1,true,3,false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DemoD2,1,2,DemoD2,2,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -572,14 +617,14 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
     <col min="11" max="11" width="14.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5" customWidth="1"/>
     <col min="18" max="18" width="22.125" customWidth="1"/>
@@ -740,19 +785,19 @@
         <v>1.2000000476837158</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K6" s="4">
         <v>32874</v>
@@ -761,22 +806,22 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O6">
         <v>12</v>
       </c>
       <c r="P6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="R6" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -793,19 +838,19 @@
         <v>1.2000000476837158</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K7" s="4">
         <v>32874</v>
@@ -814,27 +859,27 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O7">
         <v>12</v>
       </c>
       <c r="P7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="R7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -846,19 +891,19 @@
         <v>1.2000000476837158</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K8" s="4">
         <v>32874</v>
@@ -867,27 +912,27 @@
         <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O8">
         <v>12</v>
       </c>
       <c r="P8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="R8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -899,48 +944,48 @@
         <v>1.2000000476837158</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="K9" s="4">
-        <v>32874</v>
+        <v>32875</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="O9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q9" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -952,19 +997,19 @@
         <v>1.2000000476837158</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K10" s="4">
         <v>32875</v>
@@ -973,22 +1018,22 @@
         <v>11</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="O10">
         <v>13</v>
       </c>
       <c r="P10" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="Q10" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R10" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/test/luban_assistant_test_json.xlsx
+++ b/DesignerConfigs/Datas/test/luban_assistant_test_json.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879DACD9-C5BD-4E6C-B570-7EAEADE943F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28194896-4B92-455C-AA91-F122F666CF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29235" yWindow="465" windowWidth="24120" windowHeight="14850" xr2:uid="{63D940A5-3309-4C9F-BA0D-46021583473B}"/>
+    <workbookView xWindow="2700" yWindow="1680" windowWidth="25335" windowHeight="12915" xr2:uid="{63D940A5-3309-4C9F-BA0D-46021583473B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -39,186 +39,158 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>x1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x14&amp;sep=,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k8&amp;sep=#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2&amp;sep=#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k9&amp;sep=,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k15&amp;sep=,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hq</t>
+  </si>
+  <si>
+    <t>/asfa#aabbcc</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>DemoD2,1,2</t>
+  </si>
+  <si>
+    <t>2#2#4#10</t>
+  </si>
+  <si>
+    <t>1,true,2,false</t>
+  </si>
+  <si>
+    <t>DemoD2,1,2,DemoD2,2,3</t>
+  </si>
+  <si>
+    <t>##table=test.TbExcelFromJson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>##</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>title_rows=3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>table=test.TbExcelFromJson</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>k1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x14&amp;sep=,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>k8&amp;sep=#</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s2&amp;sep=#</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>k9&amp;sep=,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>k15&amp;sep=,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hq</t>
-  </si>
-  <si>
-    <t>/asfa#aabbcc</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>1.1,2.2,3.4</t>
-  </si>
-  <si>
-    <t>10.1,11.2,12.3,13.4</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>DemoD2,1,2</t>
-  </si>
-  <si>
-    <t>2#2#4#10</t>
-  </si>
-  <si>
-    <t>1,true,2,false</t>
-  </si>
-  <si>
-    <t>DemoD2,1,2,DemoD2,2,3</t>
-  </si>
-  <si>
-    <t>hq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/asfa#aabbcc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1,2.2,3.4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1,11.2,12.3,13.4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>1.1, 2.2, 3.4</t>
+  </si>
+  <si>
+    <t>10.1, 11.2, 12.3, 13.4</t>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DemoD2,1,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2#2#4#10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,true,2,false</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DemoD2,1,2,DemoD2,2,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1,2.2,3.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1,11.2,12.3,13.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 3</t>
+  </si>
+  <si>
+    <t>1.1, 2.2, 3.5</t>
+  </si>
+  <si>
+    <t>10.1, 11.2, 12.3, 13.5</t>
   </si>
   <si>
     <t>DemoD2,1,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2#2#4#11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1,true,3,false</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DemoD2,1,2,DemoD2,2,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 4</t>
+  </si>
+  <si>
+    <t>1.1, 2.2, 3.6</t>
+  </si>
+  <si>
+    <t>10.1, 11.2, 12.3, 13.6</t>
+  </si>
+  <si>
+    <t>DemoD2,1,4</t>
+  </si>
+  <si>
+    <t>2#2#4#12</t>
+  </si>
+  <si>
+    <t>1,true,4,false</t>
+  </si>
+  <si>
+    <t>DemoD2,1,2,DemoD2,2,5</t>
   </si>
 </sst>
 </file>
@@ -280,7 +252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,9 +267,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -614,14 +583,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93DC25B-4CF4-4E55-9649-32BD1CC0F91C}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="7" max="7" width="14.625" customWidth="1"/>
@@ -632,95 +602,183 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5"/>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="A2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>2</v>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>1.2000000476837158</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="3">
+        <v>32874</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>2</v>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>1.2000000476837158</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="4">
+        <v>32874</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -732,51 +790,51 @@
         <v>1.2000000476837158</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="3">
+        <v>31</v>
+      </c>
+      <c r="K5" s="4">
         <v>32874</v>
       </c>
       <c r="L5">
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O5">
         <v>12</v>
       </c>
       <c r="P5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -785,19 +843,19 @@
         <v>1.2000000476837158</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K6" s="4">
         <v>32874</v>
@@ -806,30 +864,30 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N6" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O6">
         <v>12</v>
       </c>
       <c r="P6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="R6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -838,48 +896,48 @@
         <v>1.2000000476837158</v>
       </c>
       <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="4">
+        <v>32875</v>
+      </c>
+      <c r="L7">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="4">
-        <v>32874</v>
-      </c>
-      <c r="L7">
-        <v>10</v>
-      </c>
-      <c r="M7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7">
+        <v>13</v>
+      </c>
+      <c r="P7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" t="s">
         <v>39</v>
       </c>
-      <c r="O7">
-        <v>12</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -891,155 +949,46 @@
         <v>1.2000000476837158</v>
       </c>
       <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="4">
+        <v>32876</v>
+      </c>
+      <c r="L8">
+        <v>12</v>
+      </c>
+      <c r="M8" t="s">
         <v>33</v>
       </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="4">
-        <v>32874</v>
-      </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-      <c r="M8" t="s">
-        <v>43</v>
-      </c>
       <c r="N8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="R8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
-        <v>1.2000000476837158</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="4">
-        <v>32875</v>
-      </c>
-      <c r="L9">
-        <v>11</v>
-      </c>
-      <c r="M9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" t="s">
         <v>47</v>
-      </c>
-      <c r="O9">
-        <v>13</v>
-      </c>
-      <c r="P9" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>49</v>
-      </c>
-      <c r="R9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <v>1.2000000476837158</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="4">
-        <v>32875</v>
-      </c>
-      <c r="L10">
-        <v>11</v>
-      </c>
-      <c r="M10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10">
-        <v>13</v>
-      </c>
-      <c r="P10" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>49</v>
-      </c>
-      <c r="R10" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DesignerConfigs/Datas/test/luban_assistant_test_json.xlsx
+++ b/DesignerConfigs/Datas/test/luban_assistant_test_json.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28194896-4B92-455C-AA91-F122F666CF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1723E92A-6DA3-4A10-97B6-6BA9E14B8111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1680" windowWidth="25335" windowHeight="12915" xr2:uid="{63D940A5-3309-4C9F-BA0D-46021583473B}"/>
+    <workbookView xWindow="30210" yWindow="2355" windowWidth="25335" windowHeight="12915" xr2:uid="{63D940A5-3309-4C9F-BA0D-46021583473B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -586,12 +586,12 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="7" max="7" width="14.625" customWidth="1"/>
